--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="-150" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="885" yWindow="60" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>描述</t>
   </si>
@@ -106,18 +106,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -147,6 +139,30 @@
   </si>
   <si>
     <t>skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能 CD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,17 +259,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -262,14 +267,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -278,7 +280,21 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,11 +614,12 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -613,11 +630,14 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,15 +648,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -645,68 +668,90 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>10010</v>
+        <v>10001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10020</v>
+        <v>10010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>10030</v>
+        <v>10020</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B1:E6">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+  <conditionalFormatting sqref="B3:E6 B1:D2">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="60" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="885" yWindow="60" windowWidth="26235" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>描述</t>
   </si>
@@ -130,18 +130,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>妹子普通技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -163,6 +151,38 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子普通技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子普通技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子普通技能3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -651,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -671,10 +691,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -685,7 +705,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -694,7 +714,7 @@
         <v>1.5</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -705,7 +725,7 @@
         <v>10010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -714,18 +734,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>10020</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -734,17 +754,57 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10021</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10022</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B3:E6 B1:D2">
+  <conditionalFormatting sqref="B1:D2 B3:E8">
     <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F3:F8">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -69,12 +69,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击作用类型：
+1 作用敌方
+2 作用友方
+3 作用敌方和友方</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>描述</t>
   </si>
@@ -183,6 +200,18 @@
   </si>
   <si>
     <t>skill10010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击作用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +276,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +336,70 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -622,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,9 +734,10 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,8 +756,11 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,8 +779,11 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -696,8 +802,11 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,8 +825,11 @@
       <c r="F4" s="1">
         <v>6</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -736,8 +848,11 @@
       <c r="F5" s="1">
         <v>6</v>
       </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -756,8 +871,11 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,8 +894,11 @@
       <c r="F7" s="1">
         <v>12</v>
       </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -795,23 +916,36 @@
       </c>
       <c r="F8" s="1">
         <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1:D2 B3:E8">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="8">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F2">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(E1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(G3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G2">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
